--- a/posesiones/1381282.xlsx
+++ b/posesiones/1381282.xlsx
@@ -1916,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>20</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>8</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>5</v>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>12</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>25</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2822,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>15</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>9</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>5</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>24</v>
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R28">
         <v>16</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3284,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>14</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R31">
         <v>22</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R33">
         <v>16</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3540,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R35">
         <v>6</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>14</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3884,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>10</v>
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R43">
         <v>12</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R45">
         <v>5</v>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R46">
         <v>5</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4193,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R48">
         <v>5</v>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R50">
         <v>10</v>
@@ -4346,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R51">
         <v>3</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R59">
         <v>20</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R61">
         <v>4</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4940,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R63">
         <v>18</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R68">
         <v>27</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R70">
         <v>14</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R72">
         <v>11</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5537,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R75">
         <v>16</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5637,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R77">
         <v>3</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R86">
         <v>14</v>
@@ -6122,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R87">
         <v>15</v>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R89">
         <v>22</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R91">
         <v>17</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6428,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R93">
         <v>10</v>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6528,7 +6528,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R95">
         <v>9</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R97">
         <v>6</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R102">
         <v>0</v>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6972,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R106">
         <v>14</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7222,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R109">
         <v>10</v>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7322,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R111">
         <v>10</v>
@@ -7372,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7422,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R113">
         <v>14</v>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7522,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R115">
         <v>3</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R118">
         <v>20</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R120">
         <v>21</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7878,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R122">
         <v>12</v>
@@ -7922,10 +7922,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7966,10 +7966,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8019,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R125">
         <v>10</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8119,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R127">
         <v>8</v>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8219,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R129">
         <v>14</v>
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R131">
         <v>22</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8425,7 +8425,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R133">
         <v>10</v>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8528,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R135">
         <v>17</v>
@@ -8581,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R136">
         <v>14</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8681,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R138">
         <v>20</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8922,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R143">
         <v>19</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -9022,7 +9022,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R145">
         <v>22</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9222,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R149">
         <v>8</v>
@@ -9269,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9319,7 +9319,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R151">
         <v>23</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9513,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9657,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R158">
         <v>18</v>
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9754,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10039,7 +10039,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R166">
         <v>27</v>
@@ -10092,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R167">
         <v>14</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10189,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R169">
         <v>22</v>
@@ -10242,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R170">
         <v>15</v>
@@ -10292,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10342,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R172">
         <v>22</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R174">
         <v>14</v>
@@ -10495,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R176">
         <v>11</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10645,7 +10645,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R178">
         <v>14</v>
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R179">
         <v>26</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10795,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10939,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R184">
         <v>28</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11042,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R186">
         <v>16</v>
@@ -11095,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11145,7 +11145,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R188">
         <v>8</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11245,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R190">
         <v>19</v>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11345,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R192">
         <v>16</v>
@@ -11398,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11445,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11539,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11586,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11633,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11730,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R200">
         <v>26</v>
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11877,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11971,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -12018,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12165,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R210">
         <v>30</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R211">
         <v>12</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12371,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R213">
         <v>14</v>
@@ -12424,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R215">
         <v>8</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12568,7 +12568,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12756,7 +12756,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12803,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12900,7 +12900,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R224">
         <v>20</v>
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -13000,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13191,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13288,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R232">
         <v>17</v>
@@ -13341,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R234">
         <v>4</v>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13491,7 +13491,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R236">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13588,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13682,7 +13682,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13732,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R241">
         <v>3</v>
@@ -13788,7 +13788,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R242">
         <v>0</v>
@@ -13832,10 +13832,10 @@
         <v>1</v>
       </c>
       <c r="P243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q243">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13882,7 +13882,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13929,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13976,7 +13976,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -14023,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14117,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14158,10 +14158,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q250">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14305,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R253">
         <v>17</v>
@@ -14355,7 +14355,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R255">
         <v>16</v>
@@ -14458,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R256">
         <v>11</v>
@@ -14511,7 +14511,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14655,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R260">
         <v>17</v>
@@ -14705,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14752,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14849,7 +14849,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14899,7 +14899,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R265">
         <v>19</v>
@@ -14952,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R266">
         <v>15</v>
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15049,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15096,7 +15096,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15193,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R271">
         <v>21</v>
@@ -15246,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15393,7 +15393,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R275">
         <v>23</v>
@@ -15446,7 +15446,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15496,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R277">
         <v>8</v>
@@ -15549,7 +15549,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R278">
         <v>22</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15649,7 +15649,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R280">
         <v>27</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15746,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15793,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15843,7 +15843,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R284">
         <v>20</v>
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15946,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R286">
         <v>9</v>
@@ -15996,7 +15996,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16093,7 +16093,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R289">
         <v>0</v>
@@ -16146,7 +16146,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16196,7 +16196,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R291">
         <v>16</v>
@@ -16246,7 +16246,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16296,7 +16296,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R293">
         <v>20</v>
@@ -16346,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16396,7 +16396,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R295">
         <v>22</v>
@@ -16446,7 +16446,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16728,7 +16728,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16778,7 +16778,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R303">
         <v>22</v>
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16978,7 +16978,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R307">
         <v>23</v>
@@ -17028,7 +17028,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17075,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17125,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17172,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17219,7 +17219,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17266,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17316,7 +17316,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R314">
         <v>20</v>
@@ -17369,7 +17369,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R315">
         <v>12</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17466,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17563,7 +17563,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R319">
         <v>12</v>
@@ -17616,7 +17616,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R320">
         <v>21</v>
@@ -17669,7 +17669,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17716,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17763,7 +17763,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17813,7 +17813,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R324">
         <v>20</v>
@@ -17863,7 +17863,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17910,7 +17910,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17957,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18098,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18198,7 +18198,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R332">
         <v>16</v>
@@ -18251,7 +18251,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R333">
         <v>11</v>
@@ -18304,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18354,7 +18354,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R335">
         <v>8</v>
@@ -18407,7 +18407,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18454,7 +18454,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18504,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18692,7 +18692,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18742,7 +18742,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R343">
         <v>22</v>
@@ -18792,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18839,7 +18839,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18986,7 +18986,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R348">
         <v>16</v>
@@ -19039,7 +19039,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R349">
         <v>17</v>
@@ -19089,7 +19089,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19186,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19236,7 +19236,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19286,7 +19286,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R354">
         <v>24</v>
@@ -19336,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19380,7 +19380,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19427,7 +19427,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19474,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19524,7 +19524,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R359">
         <v>14</v>
@@ -19574,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19624,7 +19624,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R361">
         <v>18</v>
@@ -19677,7 +19677,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19727,7 +19727,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R363">
         <v>14</v>
@@ -19777,7 +19777,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19824,7 +19824,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19871,7 +19871,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19921,7 +19921,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R367">
         <v>24</v>
@@ -19974,7 +19974,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R368">
         <v>2</v>
@@ -20018,10 +20018,10 @@
         <v>1</v>
       </c>
       <c r="P369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q369">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20068,7 +20068,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20115,7 +20115,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20162,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20209,7 +20209,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20250,10 +20250,10 @@
         <v>1</v>
       </c>
       <c r="P374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q374">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20303,7 +20303,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R375">
         <v>13</v>
@@ -20356,7 +20356,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20403,7 +20403,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20453,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20547,7 +20547,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20594,7 +20594,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20644,7 +20644,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R382">
         <v>20</v>
@@ -20697,7 +20697,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R383">
         <v>20</v>
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20800,7 +20800,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R385">
         <v>18</v>
@@ -20853,7 +20853,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20903,7 +20903,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R387">
         <v>10</v>
@@ -20956,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -21006,7 +21006,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R389">
         <v>21</v>
@@ -21056,7 +21056,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21106,7 +21106,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R391">
         <v>15</v>
@@ -21156,7 +21156,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21203,7 +21203,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21250,7 +21250,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21297,7 +21297,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21344,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21391,7 +21391,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21441,7 +21441,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R398">
         <v>13</v>
@@ -21494,7 +21494,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21544,7 +21544,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R400">
         <v>16</v>
@@ -21597,7 +21597,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R401">
         <v>19</v>
@@ -21647,7 +21647,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21694,7 +21694,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21741,7 +21741,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21788,7 +21788,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21838,7 +21838,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R406">
         <v>3</v>
@@ -21891,7 +21891,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R407">
         <v>5</v>
@@ -21941,7 +21941,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21991,7 +21991,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R409">
         <v>10</v>
@@ -22044,7 +22044,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R410">
         <v>19</v>
@@ -22097,7 +22097,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R411">
         <v>20</v>
@@ -22147,7 +22147,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22197,7 +22197,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R413">
         <v>11</v>
@@ -22244,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22291,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22338,7 +22338,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22388,7 +22388,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R417">
         <v>13</v>
@@ -22438,7 +22438,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22485,7 +22485,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22535,7 +22535,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R420">
         <v>0</v>
@@ -22588,7 +22588,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R421">
         <v>18</v>
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22691,7 +22691,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R423">
         <v>15</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22794,7 +22794,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R425">
         <v>12</v>
@@ -22844,7 +22844,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22894,7 +22894,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R427">
         <v>6</v>
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22997,7 +22997,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R429">
         <v>6</v>
@@ -23050,7 +23050,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23097,7 +23097,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23191,7 +23191,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23332,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23379,7 +23379,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23429,7 +23429,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R438">
         <v>6</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23526,7 +23526,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R440">
         <v>15</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23626,7 +23626,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23676,7 +23676,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R443">
         <v>15</v>
@@ -23726,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23776,7 +23776,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R445">
         <v>14</v>
@@ -23829,7 +23829,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R446">
         <v>24</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23929,7 +23929,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R448">
         <v>12</v>
@@ -23979,7 +23979,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -24029,7 +24029,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R450">
         <v>9</v>
@@ -24079,7 +24079,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24129,7 +24129,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R452">
         <v>27</v>
@@ -24182,7 +24182,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24232,7 +24232,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R454">
         <v>22</v>
@@ -24282,7 +24282,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24467,7 +24467,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24564,7 +24564,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R461">
         <v>19</v>
@@ -24614,7 +24614,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24705,7 +24705,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24752,7 +24752,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24802,7 +24802,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R466">
         <v>22</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24902,7 +24902,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R468">
         <v>15</v>
@@ -24952,7 +24952,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -25002,7 +25002,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R470">
         <v>19</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25102,7 +25102,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25149,7 +25149,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25243,7 +25243,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25290,7 +25290,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25340,7 +25340,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R477">
         <v>14</v>
@@ -25390,7 +25390,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25437,7 +25437,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25487,7 +25487,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R480">
         <v>8</v>
@@ -25540,7 +25540,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R481">
         <v>8</v>
@@ -25590,7 +25590,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25690,7 +25690,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R484">
         <v>6</v>
@@ -25740,7 +25740,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25790,7 +25790,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R486">
         <v>15</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25887,7 +25887,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25934,7 +25934,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25981,7 +25981,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26075,7 +26075,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R492">
         <v>21</v>
@@ -26119,10 +26119,10 @@
         <v>1</v>
       </c>
       <c r="P493" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q493">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26163,7 +26163,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
